--- a/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.TeamBuildingRequestHistories.xlsx
+++ b/aspnet-core/test/Timesheet.Application.Tests/Tables/dbo.TeamBuildingRequestHistories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Workspace\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCC\ncc-erp-timesheet\aspnet-core\test\Timesheet.Application.Tests\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919CB953-ABC7-4325-B9D4-EF5E23A8D8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63801D87-01F1-45B1-A3E1-89B9664AE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -98,18 +98,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>InvoiceAmount</t>
-  </si>
-  <si>
-    <t>VATMoney</t>
-  </si>
-  <si>
-    <t>Test-HN</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -460,30 +448,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,14 +519,8 @@
       <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -577,7 +558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -615,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -653,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -691,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -729,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -767,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -805,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -843,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -881,7 +862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -919,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -957,148 +938,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45004.715277777803</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45012.3972222222</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13">
-        <v>70000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13">
-        <v>110000</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45004.715277777803</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45012.3972222222</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14">
-        <v>120000</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14">
-        <v>110000</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45004.715277777803</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45012.3972222222</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15">
-        <v>130000</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15">
-        <v>110000</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
